--- a/biology/Biochimie/Stéroïde/Stéroïde.xlsx
+++ b/biology/Biochimie/Stéroïde/Stéroïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9ro%C3%AFde</t>
+          <t>Stéroïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les stéroïdes sont un groupe de lipides dérivant de triterpénoïdes (lipides à 30 atomes de carbone), majoritairement le squalène. Ils se caractérisent par un noyau cyclopentanophénanthrénique (stérane) hydrophobe partiellement ou totalement hydrogéné. Habituellement, les carbones C10, C13 sont liés à un groupe méthyle -CH3 et le carbone C17 à un groupe alkyle. Par extension, les stéroïdes incluent également les lipides dont le noyau cyclopentanophénanthrénique a été modifié par scission d'une liaison et l'ajout ou la délétion d'un carbone[3]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les stéroïdes sont un groupe de lipides dérivant de triterpénoïdes (lipides à 30 atomes de carbone), majoritairement le squalène. Ils se caractérisent par un noyau cyclopentanophénanthrénique (stérane) hydrophobe partiellement ou totalement hydrogéné. Habituellement, les carbones C10, C13 sont liés à un groupe méthyle -CH3 et le carbone C17 à un groupe alkyle. Par extension, les stéroïdes incluent également les lipides dont le noyau cyclopentanophénanthrénique a été modifié par scission d'une liaison et l'ajout ou la délétion d'un carbone. 
 En médecine le terme de « stéroïde » peut faire référence aux hormones stéroïdiennes ou aux stéroïdes neuroactifs.
 Dans un contexte sportif, « stéroïde » est habituellement employé pour désigner les stéroïdes anabolisants.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>St%C3%A9ro%C3%AFde</t>
+          <t>Stéroïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,13 +525,85 @@
           <t>Nomenclature et Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les différentes instances scientifiques ne s'accordent pas sur la classification. Dans la classification de l'IUPAC, les stéroïdes sont une catégorie incluant les stérols. Dans la classification classique les stérols sont une catégorie qui inclut les stéroïdes.
-Selon l'IUPAC
-Selon l'IUPAC, les stéroïdes incluent tous les lipides possédant un noyau cyclopentanophénanthrénique (stérane) ou dérivant de celui-ci[2]. Sa définition ne catégorise pas les différents types de stéroïdes. Toutefois, l'IUPAC précise que les « stérols sont des stéroïdes » se caractérisant par la présence d'un groupe hydroxyl -OH sur le carbone C3 (par exemple, le cholestérol - fig. 2).
-Classification classique
-En revanche, pour plusieurs biochimistes, les « stérols constituent une catégorie à part entière incluant les stéroïdes » ainsi que cinq autres sous-classes[4]:
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Nomenclature et Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon l'IUPAC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'IUPAC, les stéroïdes incluent tous les lipides possédant un noyau cyclopentanophénanthrénique (stérane) ou dérivant de celui-ci. Sa définition ne catégorise pas les différents types de stéroïdes. Toutefois, l'IUPAC précise que les « stérols sont des stéroïdes » se caractérisant par la présence d'un groupe hydroxyl -OH sur le carbone C3 (par exemple, le cholestérol - fig. 2).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nomenclature et Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En revanche, pour plusieurs biochimistes, les « stérols constituent une catégorie à part entière incluant les stéroïdes » ainsi que cinq autres sous-classes:
 sous-classe des stérols et dérivés : cholestérol, phytostérol et stérides ;
 les stéroïdes : œstrogènes, androgènes, gluco- et minéralocorticoïdes ;
 les sécostéroïdes : vitamine D ;
@@ -537,75 +621,184 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>St%C3%A9ro%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Synthèse des stéroïdes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un exemple bien connu de stérol est le cholestérol, mais il en existe plus d'une centaine, identifiés quasi exclusivement chez les animaux, les végétaux et les champignons. La synthèse du cholestérol se fait principalement par la voie de l'hydroxyméthyl-coenzyme-A-réductase (HMG-CoA-réductase). Cette voie permet la synthèse de squalène et de lanostérol desquels dérivent de nombreux autres stérols. Le squalène est un lipide isoprénoïde de la classe des prénols. Les voies de synthèse des stérols et des prénols sont donc en partie communes.
-En fait, il semble que les voies métaboliques de synthèse des stérols ne soient présentes que chez les eucaryotes. Cependant, il a été montré [5] que la protéobactérie Methylococcus capsulatus et le planctomycète Gemmata obscuriglobus possédaient des enzymes homologues à la squalène-monoxygénase et à l'oxydosqualène-cyclase, deux enzymes requises initialement pour la synthèse des stérols à partir du squalène. Par ailleurs, la présence de lanostérol[6] a été mise en évidence chez les bactéries Methylococcus capsulatus[7] et Methylosphaera hansonii[8]. Cela pourrait s'expliquer par un transfert latéral de gène entre un ancêtre de ces bactéries et des cellules eucaryotes ou par un phénomène d'endosymbiose[5].
+En fait, il semble que les voies métaboliques de synthèse des stérols ne soient présentes que chez les eucaryotes. Cependant, il a été montré  que la protéobactérie Methylococcus capsulatus et le planctomycète Gemmata obscuriglobus possédaient des enzymes homologues à la squalène-monoxygénase et à l'oxydosqualène-cyclase, deux enzymes requises initialement pour la synthèse des stérols à partir du squalène. Par ailleurs, la présence de lanostérol a été mise en évidence chez les bactéries Methylococcus capsulatus et Methylosphaera hansonii. Cela pourrait s'expliquer par un transfert latéral de gène entre un ancêtre de ces bactéries et des cellules eucaryotes ou par un phénomène d'endosymbiose.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>St%C3%A9ro%C3%AFde</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Biochimie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Extraction des ecdystéroïdes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les propriétés polaires particulières des ecdystéroïdes ont été à l'origine des difficultés rencontrées lors des premières extractions. En effet, avec une polarité intermédiaire, les ecdystéroïdes sont, fait étonnant pour des stéroïdes, relativement solubles dans l'eau. Les méthodes d'extraction utilisent cette propriété. 
 La première extraction d'un ecdystéroïde fut réalisée par Peter Karlson. En 1954, il réalisa l'extraction et l'isolement de 25 mg d'ecdysone pure et cristallisée à partir de 500 kg de chrysalides de vers à soie. La méthode était alors relativement simple mais il a ensuite développé une méthode d'extraction à plus grande échelle. Cette méthode exigeait un matériel plus important mais permettait d'accroître l'efficacité. En 1960, il a pu obtenir 250 mg d'ecdysone à partir de 1000 kg de chrysalides séchées. 
-Extraction préliminaire
-La plupart des procédés débutent par une extraction à l'alcool (méthanol ou éthanol) ou à l'acétone. Ces extractions consistent en un broyage des tissus animaux ou végétaux. On fait ensuite macérer ces tissus avec l'alcool très concentré et on les filtre ou on les décante pour récupérer un extrait brut qui sera soumis à différentes partitions. 
-Partitions
-Des partitions permettent de séparer les composés polaires et apolaires des ecdystéroïdes. Les partitions opérées sont de deux types. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Extraction des ecdystéroïdes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Extraction préliminaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plupart des procédés débutent par une extraction à l'alcool (méthanol ou éthanol) ou à l'acétone. Ces extractions consistent en un broyage des tissus animaux ou végétaux. On fait ensuite macérer ces tissus avec l'alcool très concentré et on les filtre ou on les décante pour récupérer un extrait brut qui sera soumis à différentes partitions. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Extraction des ecdystéroïdes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Partitions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des partitions permettent de séparer les composés polaires et apolaires des ecdystéroïdes. Les partitions opérées sont de deux types. 
 Partitions eau-éther de pétrole (ou chloroforme) ou eau-hexane. On mêle l'extrait brut à un mélange eau-éther de pétrole et on récupère ensuite la fraction aqueuse qui contiendra les ecdystéroïdes libres. Cette partition permet d'éliminer les composés lipidiques. 
 Partitions eau-butanol. Cette fois-ci, on récupère les ecdystéroïdes libres dans la fraction alcoolique. Grâce à cette partition, on élimine les sucres et les composés polaires. Cette partition n'est parfois pas mise en œuvre: en effet, cela provoque parfois la perte de certains ecdystéroïdes polaires. 
 Les tissus végétaux sont parfois préférés pour l'extraction car ils sont beaucoup plus riches en ecdystéroïdes. Mais la purification est alors plus délicate du fait de la présence de nombreux phénols et pigments. 
-Opérations supplémentaires
-À la suite des différentes partitions, qui peuvent être répétées plusieurs fois, on a une fraction contenant les ecdystéroïdes. Cette solution doit ensuite être lavée et séchée avant de pouvoir être analysée. Les lavages peuvent se faire à l'eau glacée, à l'acide (acétique, sulfurique), et après chaque partition. Les extraits obtenus sont ensuite concentrés et séchés par évaporation. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Stéroïde</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/St%C3%A9ro%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Extraction des ecdystéroïdes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Opérations supplémentaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite des différentes partitions, qui peuvent être répétées plusieurs fois, on a une fraction contenant les ecdystéroïdes. Cette solution doit ensuite être lavée et séchée avant de pouvoir être analysée. Les lavages peuvent se faire à l'eau glacée, à l'acide (acétique, sulfurique), et après chaque partition. Les extraits obtenus sont ensuite concentrés et séchés par évaporation. 
 Après ces diverses opérations, on a un mélange d'ecdystéroïdes qu'il va falloir séparer puis analyser. 
 N.B. On utilise beaucoup, afin d'extraire les ecdystéroïdes, une méthode dite D.C.C.C. (Droplet Counter-Current Chromatography) qui est une sorte de partition en continu. Cela peut fonctionner à l'échelle préparative, avec un débit lent certes, mais avec une résolution assez intéressante.
 </t>
